--- a/static/demo/form/alt-test.xlsx
+++ b/static/demo/form/alt-test.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86178\Desktop\288691781034bbd4ee640348006cc462-07c651ad55edfa9ff48b08c5c09fce21c826351f\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B9ACB34B-FAA1-4502-B222-136010851A9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E6FF8D10-5479-4901-850E-879D81D02238}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17340" windowHeight="8520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="notmatch2-art - 副本" sheetId="1" r:id="rId1"/>
+    <sheet name="alt-test" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="6" uniqueCount="6">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="39" uniqueCount="20">
   <si>
     <t>name</t>
   </si>
@@ -40,19 +40,67 @@
   </si>
   <si>
     <t>44244a</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>date made</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>last transit</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>123-456-7891</t>
+  </si>
+  <si>
+    <t>44245a</t>
+  </si>
+  <si>
+    <t>123-456-7892</t>
+  </si>
+  <si>
+    <t>44246a</t>
+  </si>
+  <si>
+    <t>123-456-7893</t>
+  </si>
+  <si>
+    <t>44247a</t>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fd</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -647,10 +695,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1007,17 +1055,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -1033,11 +1081,11 @@
       <c r="D1">
         <v>3</v>
       </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
       </c>
       <c r="G1">
         <v>6</v>
@@ -1068,18 +1116,232 @@
       <c r="E2" s="1" t="d">
         <v>2021-02-15</v>
       </c>
-      <c r="F2" s="2" t="d">
+      <c r="F2" s="3" t="d">
         <v>2021-02-16</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>44244</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="1" t="d">
+        <v>1999-09-09</v>
+      </c>
       <c r="J2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>123457</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="d">
+        <v>2021-02-15</v>
+      </c>
+      <c r="F3" s="3" t="d">
+        <v>2021-02-16</v>
+      </c>
+      <c r="G3" s="2">
+        <v>44245</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1" t="d">
+        <v>1999-09-10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>123458</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="d">
+        <v>2021-02-15</v>
+      </c>
+      <c r="F4" s="3" t="d">
+        <v>2021-02-16</v>
+      </c>
+      <c r="G4" s="2">
+        <v>44246</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="1" t="d">
+        <v>1999-09-11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>123459</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="d">
+        <v>2021-02-16</v>
+      </c>
+      <c r="F5" s="1" t="d">
+        <v>2021-02-18</v>
+      </c>
+      <c r="G5" s="2">
+        <v>44247</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="1" t="d">
+        <v>1999-09-12</v>
+      </c>
+      <c r="J5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>123459</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3" t="d">
+        <v>2021-02-16</v>
+      </c>
+      <c r="F6" s="1" t="d">
+        <v>2021-03-18</v>
+      </c>
+      <c r="G6" s="2">
+        <v>44247</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="1" t="d">
+        <v>1999-09-12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>123459</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="d">
+        <v>2020-02-16</v>
+      </c>
+      <c r="F7" s="1" t="d">
+        <v>2021-01-18</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44247</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1" t="d">
+        <v>1999-09-12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>123459</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3" t="d">
+        <v>2019-02-16</v>
+      </c>
+      <c r="F8" s="1" t="d">
+        <v>2020-02-18</v>
+      </c>
+      <c r="G8" s="2">
+        <v>44247</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="1" t="d">
+        <v>1999-09-12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>123459</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="3" t="d">
+        <v>2018-02-16</v>
+      </c>
+      <c r="F9" s="1" t="d">
+        <v>2019-02-18</v>
+      </c>
+      <c r="G9" s="2">
+        <v>44247</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="d">
+        <v>1999-09-12</v>
       </c>
     </row>
   </sheetData>
